--- a/Output/Current_Ratings_4_Years_0.98_2016-03-02.xlsx
+++ b/Output/Current_Ratings_4_Years_0.98_2016-03-02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="2385" yWindow="0" windowWidth="19785" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Current_Ratings_4_Years_0.98_20" sheetId="1" r:id="rId1"/>
@@ -2250,50 +2250,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF4AF80"/>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5B487"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF6DD9FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4AF80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4AF80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4AF80"/>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6ED2F6"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF6DD9FF"/>
-      <color rgb="FFF4AF80"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2572,7 +2547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26167,14 +26142,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B501">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>(B2&lt;(A2*0.666))</formula>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(B2&lt;A2*0.6666)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>B2&gt;(A2*1.5)</formula>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(B2&gt;A2*1.5)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>